--- a/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_24.07.24_output.xlsx
+++ b/docs/PTA3_ADDC_10_3/PTA3_ADDC_10_3_24.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,148 +505,2654 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1731701278.359064</t>
-        </is>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1731701281.5870175</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701278.359064.png</t>
+          <t>1731879573.2593374</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./test_images/MXI1731701281.5870175.png</t>
+          <t>1731879577.5699844</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731879573.2593374.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731879577.5699844.png</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>3117.15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3116.65</v>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>295.99</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02</v>
+        <v>295.88</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1100000000000136</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1731879578.9653718</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>./test_images/SBER1731879578.9653718.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>296.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>296.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.3999999999999773</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1731879579.7071965</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1731879581.6599553</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879579.7071965.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879581.6599553.png</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>135.85</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.05000000000001137</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1731879581.6749153</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1731879581.7705197</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879581.6749153.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879581.7705197.png</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>135.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>136.14</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.289999999999992</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1731879583.278355</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1731879583.5844493</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879583.278355.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879583.5844493.png</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>135.98</v>
+      </c>
+      <c r="L7" t="n">
+        <v>136.22</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1731879583.7895954</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1731879585.4600122</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879583.7895954.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879585.4600122.png</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>136.38</v>
+      </c>
+      <c r="L8" t="n">
+        <v>136.51</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1299999999999955</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1731879586.9627302</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1731879587.1149096</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879586.9627302.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879587.1149096.png</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>137.08</v>
+      </c>
+      <c r="L9" t="n">
+        <v>136.94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1400000000000148</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GAZP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1731879587.2458441</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>./test_images/GAZP1731879587.2458441.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>136.77</v>
+      </c>
+      <c r="L10" t="n">
+        <v>136.76</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.01000000000001933</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1731879587.6141753</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1731879587.712081</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731879587.6141753.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731879587.712081.png</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>6971</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6964.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1731879593.971387</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1731879594.9142964</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731879593.971387.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731879594.9142964.png</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6949.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6980</v>
+      </c>
+      <c r="M12" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1731879594.9281423</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1731879595.4097035</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731879594.9281423.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>./test_images/LKOH1731879595.4097035.png</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>6980</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6960</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1731879596.3709157</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1731879601.2692153</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879596.3709157.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879601.2692153.png</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>535.65</v>
+      </c>
+      <c r="L14" t="n">
+        <v>535.35</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.2999999999999545</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1731879602.8542435</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1731879603.2688284</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879602.8542435.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879603.2688284.png</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>537.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>537</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1731879603.2828174</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1731879603.3248067</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879603.2828174.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879603.3248067.png</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>537</v>
+      </c>
+      <c r="L16" t="n">
+        <v>537.05</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1731879603.3656905</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1731879603.406581</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879603.3656905.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879603.406581.png</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>537</v>
+      </c>
+      <c r="L17" t="n">
+        <v>537.05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.04999999999995453</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1731879603.5396411</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>./test_images/ROSN1731879603.5396411.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>537.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>537</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.04999999999995453</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1731879609.8436952</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>./test_images/NVTK1731879609.8436952.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1094.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1084.6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-9.800000000000182</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1731879613.6307085</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1731879620.2377896</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731879613.6307085.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>./test_images/GMKN1731879620.2377896.png</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>129.48</v>
+      </c>
+      <c r="L20" t="n">
+        <v>131.22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-1.740000000000009</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1731879624.7651412</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1731879624.8702211</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731879624.7651412.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731879624.8702211.png</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>168.42</v>
+      </c>
+      <c r="L21" t="n">
+        <v>168.48</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1731879625.2168806</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1731879628.4508476</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731879625.2168806.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731879628.4508476.png</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1731879628.73771</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>./test_images/NLMK1731879628.73771.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>172.18</v>
+      </c>
+      <c r="L23" t="n">
+        <v>171.74</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1731879633.5021684</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1731879636.3604007</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731879633.5021684.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>./test_images/MAGN1731879636.3604007.png</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="L24" t="n">
+        <v>53.48</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1731879640.0513728</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1731879640.1810277</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731879640.0513728.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731879640.1810277.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1464.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5999999999999091</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1731879640.3882506</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1731879644.8184922</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731879640.3882506.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731879644.8184922.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1465</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1468.8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-3.799999999999955</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1731879644.8670883</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>./test_images/CHMF1731879644.8670883.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1468</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1464.8</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-3.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1731879646.8582938</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1731879648.3105083</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731879646.8582938.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731879648.3105083.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>64.06999999999999</v>
+      </c>
+      <c r="L28" t="n">
+        <v>63.78</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.289999999999992</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1731879650.6087372</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1731879653.021028</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731879650.6087372.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731879653.021028.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>64.39</v>
+      </c>
+      <c r="L29" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.480000000000004</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1731879653.035965</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>./test_images/ALRS1731879653.035965.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>63.91</v>
+      </c>
+      <c r="L30" t="n">
+        <v>63.95</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.04000000000000625</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1731879656.904911</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1731879657.0489016</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731879656.904911.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731879657.0489016.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>59.22</v>
+      </c>
+      <c r="L31" t="n">
+        <v>59.23</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.00999999999999801</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1731879657.2744148</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1731879659.08131</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731879657.2744148.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731879659.08131.png</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>59.03</v>
+      </c>
+      <c r="L32" t="n">
+        <v>59.05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.01999999999999602</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1731879659.6131735</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1731879660.9222517</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731879659.6131735.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>./test_images/SELG1731879660.9222517.png</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>59.25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>59.21</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03999999999999915</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1731879664.1452405</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1731879665.2186453</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731879664.1452405.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731879665.2186453.png</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>145.74</v>
+      </c>
+      <c r="L34" t="n">
+        <v>146.24</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1731879665.8294117</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1731879666.160302</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731879665.8294117.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731879666.160302.png</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>146.26</v>
+      </c>
+      <c r="L35" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1731879667.125578</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1731879668.5592546</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731879667.125578.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>./test_images/SOFL1731879668.5592546.png</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>146.08</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7800000000000011</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1731879672.3204408</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1731879674.7487369</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731879672.3204408.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>./test_images/ABIO1731879674.7487369.png</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>89.3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1731879679.309717</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1731879680.8697782</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731879679.309717.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731879680.8697782.png</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>363.83</v>
+      </c>
+      <c r="L38" t="n">
+        <v>361.6</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.229999999999961</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1731879684.5930166</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>./test_images/BSPB1731879684.5930166.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>370.24</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-3.840000000000032</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.05</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1731879686.605585</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1731879691.085492</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731879686.605585.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731879691.085492.png</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.09960000000000001</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.10026</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.0006599999999999939</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1731879691.1263816</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1731879691.172569</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731879691.1263816.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731879691.172569.png</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.10024</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.10028</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1731879691.7253149</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1731879693.4111397</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731879691.7253149.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>./test_images/FEES1731879693.4111397.png</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.1002</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.10062</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0004200000000000037</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1731701284.7409172</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1731701285.3383477</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701284.7409172.png</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731701285.3383477.png</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1731879694.1660528</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1731879697.8498855</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731879694.1660528.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731879697.8498855.png</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>3117.15</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3116.65</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1731879701.6558554</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1731879702.3512228</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731879701.6558554.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>./test_images/MXI1731879702.3512228.png</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>3126.75</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L44" t="n">
         <v>3130</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M44" t="n">
         <v>-3.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N44" t="n">
         <v>-0.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1731879705.6100247</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1731879709.3492143</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731879705.6100247.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>./test_images/RUAL1731879709.3492143.png</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>38.095</v>
+      </c>
+      <c r="L45" t="n">
+        <v>38.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1731879711.4857194</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1731879711.5845435</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731879711.4857194.png</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731879711.5845435.png</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>664.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>662.9</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.300000000000068</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1731879712.3215697</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1731879712.657113</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731879712.3215697.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731879712.657113.png</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>664.9</v>
+      </c>
+      <c r="L47" t="n">
+        <v>662.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.399999999999977</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1731879714.9397085</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1731879716.2538912</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731879714.9397085.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>./test_images/TATN1731879716.2538912.png</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>665.6</v>
+      </c>
+      <c r="L48" t="n">
+        <v>664.1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.23</v>
       </c>
     </row>
   </sheetData>
@@ -650,7 +3166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,42 +3209,416 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.75</v>
+        <v>0.5800000000000125</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.375</v>
+        <v>0.09666666666666875</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08</v>
+        <v>0.42</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>ROSN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.3999999999998636</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07999999999997272</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CHMF</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-6.400000000000091</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.133333333333364</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>FEES</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.0001999999999999919</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6.666666666666395e-05</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>TATN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5.200000000000045</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.733333333333348</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>LKOH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>57</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>SOFL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.840000000000003</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6133333333333345</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ALRS</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8100000000000023</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2700000000000007</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>NLMK</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-4.379999999999995</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.459999999999998</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-2.59</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>SELG</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02333333333333106</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.375</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>SBER</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2899999999999636</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1449999999999818</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.09999999999999998</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>BSPB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.61000000000007</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.8050000000000352</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.4400000000000001</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUAL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.08500000000000085</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>NVTK</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-9.800000000000182</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-9.800000000000182</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>MAGN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>GMKN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.740000000000009</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.740000000000009</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
